--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>289775.390089283</v>
+        <v>289639.5954749457</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18185884.2951306</v>
+        <v>18601640.52608542</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8728203.005386101</v>
+        <v>9135685.687344907</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5774295.231612987</v>
+        <v>5586478.319387063</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15.68954022671365</v>
+        <v>13.99817582792812</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +819,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>123.0673923170412</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>343.6656870687768</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -947,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>101.2373641501126</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1060,10 +1062,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>104.9037564455519</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>189.7321519076238</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>135.441772517089</v>
       </c>
       <c r="H8" t="n">
-        <v>165.7319137770612</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1373,13 +1375,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>119.0131614123039</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>58.67748875058538</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429392</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.31517967031814</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>77.44151157098969</v>
+        <v>106.8364187178475</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>24.12958620662205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>203.084572236293</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>116.511374306514</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>34.53558964739592</v>
       </c>
     </row>
     <row r="20">
@@ -2081,16 +2083,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2135,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>187.7303633741237</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>25.40173427021974</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2251,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>158.0577359003857</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>101.5800624936542</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>58.67748875058447</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>156.0927360923581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.98727664058491</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526347924</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -2524,16 +2526,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2561,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>385.6521543351389</v>
+        <v>5.045140377039849</v>
       </c>
       <c r="G26" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2618,7 +2620,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>158.0577359003854</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>192.8717243028906</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2798,10 +2800,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>245.2005671007026</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>79.25475695663302</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
@@ -2846,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2953,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>114.0229165455007</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>200.5406100707712</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3010,10 +3012,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>340.3651335756427</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>139.2702769432202</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
         <v>294.8896947407055</v>
@@ -3083,19 +3085,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3196,16 +3198,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>181.2635869532365</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>120.4128486741869</v>
       </c>
       <c r="C35" t="n">
-        <v>361.441484330968</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3424,22 +3426,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>123.0673923170403</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>101.2373641501136</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>25.47841348600228</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429438</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,16 +3714,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>218.7757544134941</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>240.8920599900355</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3752,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>58.67748875058492</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>161.8970328977316</v>
       </c>
       <c r="W43" t="n">
-        <v>146.3034971231914</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>148.3353614194156</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>104.7223743992564</v>
       </c>
     </row>
     <row r="45">
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>121.9332546069152</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4150,10 +4152,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>65.76953573495733</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>487.2469754669713</v>
+        <v>1187.745967515826</v>
       </c>
       <c r="C2" t="n">
-        <v>60.34624548027142</v>
+        <v>760.8452375291258</v>
       </c>
       <c r="D2" t="n">
-        <v>60.34624548027142</v>
+        <v>760.8452375291258</v>
       </c>
       <c r="E2" t="n">
-        <v>60.34624548027142</v>
+        <v>760.8452375291258</v>
       </c>
       <c r="F2" t="n">
-        <v>44.49822504924753</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M2" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N2" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="O2" t="n">
-        <v>1696.494830002562</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U2" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="V2" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="W2" t="n">
-        <v>1724.152608635864</v>
+        <v>1607.594331807356</v>
       </c>
       <c r="X2" t="n">
-        <v>1312.432609803611</v>
+        <v>1607.594331807356</v>
       </c>
       <c r="Y2" t="n">
-        <v>907.0953397585014</v>
+        <v>1607.594331807356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>983.3471129133208</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>865.8412094308255</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>762.0012509461105</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>657.2993172190478</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>563.653486901952</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>469.599715119556</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="I3" t="n">
-        <v>423.6702648437783</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="J3" t="n">
-        <v>423.6702648437783</v>
+        <v>687.9211111614567</v>
       </c>
       <c r="K3" t="n">
-        <v>423.6702648437783</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="L3" t="n">
-        <v>577.4153955460176</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="M3" t="n">
-        <v>1128.080930530456</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N3" t="n">
-        <v>1678.746465514894</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O3" t="n">
-        <v>1678.746465514894</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P3" t="n">
-        <v>1678.746465514894</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377673</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>2143.58700502363</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>2001.707069321308</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1816.938873240945</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1611.965734380211</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1415.444357213428</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>1251.967010980091</v>
       </c>
       <c r="Y3" t="n">
         <v>1112.274122333384</v>
@@ -4462,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5772905989122</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5772905989122</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5772905989122</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5772905989122</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5772905989122</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G4" t="n">
-        <v>268.5772905989122</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734052</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792424</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736632</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743914</v>
@@ -4507,31 +4509,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212358</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.7432593109778</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>814.9279035094764</v>
+        <v>894.6915758509472</v>
       </c>
       <c r="C5" t="n">
         <v>467.7908458642473</v>
       </c>
       <c r="D5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M5" t="n">
         <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V5" t="n">
-        <v>1646.496266633259</v>
+        <v>2122.651288674383</v>
       </c>
       <c r="W5" t="n">
-        <v>1646.496266633259</v>
+        <v>1726.25993897473</v>
       </c>
       <c r="X5" t="n">
-        <v>1234.776267801006</v>
+        <v>1314.539940142477</v>
       </c>
       <c r="Y5" t="n">
-        <v>1234.776267801006</v>
+        <v>1314.539940142477</v>
       </c>
     </row>
     <row r="6">
@@ -4626,43 +4628,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F6" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L6" t="n">
-        <v>1145.829295018124</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M6" t="n">
-        <v>1302.520320645319</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>287.709308798102</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>817.6261093758709</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C7" t="n">
-        <v>645.6535462547869</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D7" t="n">
-        <v>482.3367733815576</v>
+        <v>150.4616153982898</v>
       </c>
       <c r="E7" t="n">
-        <v>316.1285675344111</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734052</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792424</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736632</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462377</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>2033.262614171847</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V7" t="n">
-        <v>1751.551146779876</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W7" t="n">
-        <v>1476.698742952389</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X7" t="n">
-        <v>1234.134846398194</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y7" t="n">
-        <v>1007.792078087936</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1074.432753043511</v>
+        <v>1455.701838756372</v>
       </c>
       <c r="C8" t="n">
-        <v>1074.432753043511</v>
+        <v>1455.701838756372</v>
       </c>
       <c r="D8" t="n">
-        <v>651.1401322285108</v>
+        <v>1032.409217941373</v>
       </c>
       <c r="E8" t="n">
-        <v>651.1401322285108</v>
+        <v>606.4322780892302</v>
       </c>
       <c r="F8" t="n">
-        <v>651.1401322285108</v>
+        <v>181.3080962786304</v>
       </c>
       <c r="G8" t="n">
-        <v>246.8010698179594</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="N8" t="n">
-        <v>1123.5801824935</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V8" t="n">
-        <v>1899.61838738015</v>
+        <v>1867.421837588625</v>
       </c>
       <c r="W8" t="n">
-        <v>1899.61838738015</v>
+        <v>1867.421837588625</v>
       </c>
       <c r="X8" t="n">
-        <v>1899.61838738015</v>
+        <v>1455.701838756372</v>
       </c>
       <c r="Y8" t="n">
-        <v>1494.281117335041</v>
+        <v>1455.701838756372</v>
       </c>
     </row>
     <row r="9">
@@ -4863,46 +4865,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F9" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="M9" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N9" t="n">
-        <v>669.8354755761777</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4957,7 +4959,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1745.792697513689</v>
+        <v>471.3989550359474</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.891967526989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D11" t="n">
-        <v>895.5993467119897</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E11" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K11" t="n">
-        <v>44.49822504924753</v>
+        <v>455.358312627159</v>
       </c>
       <c r="L11" t="n">
-        <v>572.914647509062</v>
+        <v>455.358312627159</v>
       </c>
       <c r="M11" t="n">
-        <v>1123.5801824935</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N11" t="n">
-        <v>1123.5801824935</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O11" t="n">
-        <v>1674.245717477938</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q11" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462377</v>
+        <v>2104.695937904493</v>
       </c>
       <c r="W11" t="n">
-        <v>2224.911252462377</v>
+        <v>1708.30458820484</v>
       </c>
       <c r="X11" t="n">
-        <v>2224.911252462377</v>
+        <v>1296.584589372587</v>
       </c>
       <c r="Y11" t="n">
-        <v>2165.64106180522</v>
+        <v>891.2473193274775</v>
       </c>
     </row>
     <row r="12">
@@ -5100,43 +5102,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F12" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J12" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="K12" t="n">
-        <v>44.49822504924753</v>
+        <v>602.6104029955973</v>
       </c>
       <c r="L12" t="n">
-        <v>44.49822504924753</v>
+        <v>602.6104029955973</v>
       </c>
       <c r="M12" t="n">
-        <v>595.1637600336857</v>
+        <v>602.6104029955973</v>
       </c>
       <c r="N12" t="n">
-        <v>1145.829295018124</v>
+        <v>602.6104029955973</v>
       </c>
       <c r="O12" t="n">
-        <v>1696.494830002562</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P12" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q12" t="n">
         <v>1853.185855629757</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>268.5772905989112</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="C13" t="n">
-        <v>96.60472747782725</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="D13" t="n">
-        <v>44.49822504924753</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="E13" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F13" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G13" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H13" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5242,7 +5244,7 @@
         <v>685.0860276212348</v>
       </c>
       <c r="Y13" t="n">
-        <v>458.7432593109769</v>
+        <v>685.0860276212348</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1726.839139109241</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="C14" t="n">
         <v>1299.938409122541</v>
@@ -5267,61 +5269,61 @@
         <v>448.8372874597989</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K14" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L14" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M14" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N14" t="n">
-        <v>1145.829295018124</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O14" t="n">
-        <v>1696.494830002562</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W14" t="n">
-        <v>2146.687503400771</v>
+        <v>2116.995677999903</v>
       </c>
       <c r="X14" t="n">
-        <v>2146.687503400771</v>
+        <v>1705.275679167651</v>
       </c>
       <c r="Y14" t="n">
-        <v>2146.687503400771</v>
+        <v>1299.938409122541</v>
       </c>
     </row>
     <row r="15">
@@ -5337,37 +5339,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F15" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L15" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M15" t="n">
-        <v>751.8547856608809</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N15" t="n">
-        <v>1302.520320645319</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="O15" t="n">
         <v>1302.520320645319</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C16" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D16" t="n">
-        <v>792.3900115791711</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5458,28 +5460,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R16" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S16" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T16" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U16" t="n">
-        <v>2224.911252462376</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V16" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W16" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X16" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y16" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1805.062888170846</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="C17" t="n">
-        <v>1378.162158184147</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="D17" t="n">
-        <v>954.8695373691469</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="E17" t="n">
-        <v>528.8925975170044</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F17" t="n">
-        <v>103.7684157064047</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G17" t="n">
-        <v>103.7684157064047</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H17" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L17" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M17" t="n">
-        <v>1145.829295018124</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N17" t="n">
-        <v>1696.494830002562</v>
+        <v>549.9383681074142</v>
       </c>
       <c r="O17" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462377</v>
+        <v>2019.775320910565</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462377</v>
+        <v>1662.285906036814</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462377</v>
+        <v>1265.894556337161</v>
       </c>
       <c r="X17" t="n">
-        <v>2224.911252462377</v>
+        <v>854.1745575049085</v>
       </c>
       <c r="Y17" t="n">
-        <v>2224.911252462377</v>
+        <v>448.8372874597989</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5582,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K18" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L18" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M18" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N18" t="n">
-        <v>595.1637600336857</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O18" t="n">
-        <v>1145.829295018124</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P18" t="n">
         <v>1389.040378766978</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1027.91077931376</v>
+        <v>460.0356249219011</v>
       </c>
       <c r="C19" t="n">
-        <v>855.9382161926764</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="D19" t="n">
-        <v>692.6214433194471</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="E19" t="n">
-        <v>526.4132374723006</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="F19" t="n">
-        <v>354.551463246861</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="G19" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5680,7 +5682,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N19" t="n">
         <v>1451.88378161995</v>
@@ -5695,28 +5697,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S19" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T19" t="n">
-        <v>2107.222995587109</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U19" t="n">
-        <v>1827.038547087413</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V19" t="n">
-        <v>1545.327079695442</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W19" t="n">
-        <v>1270.474675867955</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X19" t="n">
-        <v>1027.91077931376</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y19" t="n">
-        <v>1027.91077931376</v>
+        <v>650.2015936339667</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1753.37893010211</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="C20" t="n">
-        <v>1326.47820011541</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D20" t="n">
-        <v>903.1855793004106</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E20" t="n">
-        <v>477.2086394482681</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J20" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K20" t="n">
-        <v>52.08445763766833</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L20" t="n">
-        <v>670.5873920849796</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M20" t="n">
-        <v>1315.132555351125</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="N20" t="n">
-        <v>1959.677718617271</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="O20" t="n">
-        <v>2604.222881883416</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P20" t="n">
-        <v>2604.222881883416</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q20" t="n">
-        <v>2604.222881883416</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T20" t="n">
-        <v>2604.222881883416</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U20" t="n">
-        <v>2604.222881883416</v>
+        <v>2035.284622791544</v>
       </c>
       <c r="V20" t="n">
-        <v>2604.222881883416</v>
+        <v>1677.795207917793</v>
       </c>
       <c r="W20" t="n">
-        <v>2578.56456443875</v>
+        <v>1281.40385821814</v>
       </c>
       <c r="X20" t="n">
-        <v>2578.56456443875</v>
+        <v>869.6838593858872</v>
       </c>
       <c r="Y20" t="n">
-        <v>2173.22729439364</v>
+        <v>464.3465893407776</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>619.2079486691235</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C21" t="n">
-        <v>501.7020451866283</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>397.8620867019134</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E21" t="n">
-        <v>293.1601529748506</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F21" t="n">
-        <v>199.5143226577547</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G21" t="n">
-        <v>105.4605508753587</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H21" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I21" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J21" t="n">
-        <v>52.08445763766833</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K21" t="n">
-        <v>52.08445763766833</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="L21" t="n">
-        <v>52.08445763766833</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="M21" t="n">
-        <v>52.08445763766833</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="N21" t="n">
-        <v>696.6296209038139</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O21" t="n">
-        <v>696.6296209038139</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P21" t="n">
-        <v>1341.174784169959</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q21" t="n">
-        <v>1805.320261032739</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R21" t="n">
-        <v>1860.772088218178</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S21" t="n">
-        <v>1779.447840779433</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T21" t="n">
-        <v>1637.567905077111</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U21" t="n">
-        <v>1452.799708996748</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V21" t="n">
-        <v>1247.826570136014</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W21" t="n">
-        <v>1051.305192969231</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X21" t="n">
-        <v>887.8278467358939</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y21" t="n">
-        <v>748.1349580891863</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>725.4437737045677</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C22" t="n">
-        <v>553.4712105834836</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D22" t="n">
-        <v>390.1544377102543</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E22" t="n">
-        <v>223.9462318631079</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F22" t="n">
-        <v>52.08445763766833</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G22" t="n">
-        <v>52.08445763766833</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H22" t="n">
-        <v>52.08445763766833</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I22" t="n">
-        <v>52.08445763766833</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5757858618263</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K22" t="n">
-        <v>336.1033870676636</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L22" t="n">
-        <v>690.7927083620843</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M22" t="n">
-        <v>1081.978503332335</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N22" t="n">
-        <v>1459.470014208371</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O22" t="n">
-        <v>1814.898142888134</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.497354810035</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q22" t="n">
-        <v>2232.497485050797</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2232.497485050797</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2062.362437569931</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T22" t="n">
-        <v>1819.023089795831</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U22" t="n">
-        <v>1819.023089795831</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V22" t="n">
-        <v>1659.368811108573</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="W22" t="n">
-        <v>1384.516407281086</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="X22" t="n">
-        <v>1141.952510726891</v>
+        <v>1420.451440016514</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.6097424166333</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2123.056172345431</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C23" t="n">
-        <v>1696.155442358731</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D23" t="n">
-        <v>1272.862821543731</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E23" t="n">
-        <v>846.8858816915888</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F23" t="n">
-        <v>421.761699880989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G23" t="n">
-        <v>421.761699880989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H23" t="n">
-        <v>123.8933213550239</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I23" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J23" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K23" t="n">
-        <v>804.5047580739941</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L23" t="n">
-        <v>1734.129805693271</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M23" t="n">
-        <v>2738.415907112329</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N23" t="n">
-        <v>3714.66696559903</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="O23" t="n">
-        <v>4449.822504924753</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P23" t="n">
-        <v>4449.822504924753</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q23" t="n">
-        <v>4449.822504924753</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R23" t="n">
-        <v>4449.822504924753</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S23" t="n">
-        <v>4345.455210797893</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T23" t="n">
-        <v>4124.529639842526</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="U23" t="n">
-        <v>3866.174730438938</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="V23" t="n">
-        <v>3508.685315565188</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="W23" t="n">
-        <v>3112.293965865535</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="X23" t="n">
-        <v>2700.573967033282</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="Y23" t="n">
-        <v>2542.904536636961</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>656.1199411299502</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C24" t="n">
-        <v>538.614037647455</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>434.7740791627401</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E24" t="n">
-        <v>330.0721454356773</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F24" t="n">
-        <v>236.4263151185814</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G24" t="n">
-        <v>142.3725433361855</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H24" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I24" t="n">
-        <v>96.44309306040689</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J24" t="n">
-        <v>96.44309306040689</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K24" t="n">
-        <v>96.44309306040689</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L24" t="n">
-        <v>96.44309306040689</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="M24" t="n">
-        <v>96.44309306040689</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N24" t="n">
-        <v>292.0050856290352</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O24" t="n">
-        <v>1181.486363640507</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P24" t="n">
-        <v>1897.684080679005</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q24" t="n">
-        <v>1897.684080679005</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R24" t="n">
-        <v>1897.684080679005</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S24" t="n">
-        <v>1816.359833240259</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T24" t="n">
-        <v>1674.479897537938</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U24" t="n">
-        <v>1489.711701457574</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V24" t="n">
-        <v>1284.73856259684</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W24" t="n">
-        <v>1088.217185430058</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X24" t="n">
-        <v>924.7398391967206</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y24" t="n">
-        <v>785.046950550013</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1172.177572622732</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="C25" t="n">
-        <v>1000.205009501648</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="D25" t="n">
-        <v>836.8882366284186</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="E25" t="n">
-        <v>670.6800307812721</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="F25" t="n">
-        <v>498.8182565558325</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G25" t="n">
-        <v>332.5612868500647</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H25" t="n">
-        <v>188.7650183582191</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I25" t="n">
-        <v>88.99645009849506</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J25" t="n">
-        <v>146.4877783226531</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K25" t="n">
-        <v>373.0153795284903</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L25" t="n">
-        <v>727.704700822911</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
-        <v>1118.890495793162</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N25" t="n">
-        <v>1496.382006669198</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O25" t="n">
-        <v>1851.810135348961</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P25" t="n">
-        <v>2142.409347270861</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q25" t="n">
-        <v>2269.409477511623</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2222.370864198796</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S25" t="n">
-        <v>2222.370864198796</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T25" t="n">
-        <v>2222.370864198796</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U25" t="n">
-        <v>1942.186415699101</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V25" t="n">
-        <v>1942.186415699101</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W25" t="n">
-        <v>1667.334011871614</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X25" t="n">
-        <v>1424.770115317419</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.427347007161</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>838.3849181013534</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="C26" t="n">
-        <v>838.3849181013534</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="D26" t="n">
-        <v>838.3849181013534</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="E26" t="n">
-        <v>838.3849181013534</v>
+        <v>786.6986386332422</v>
       </c>
       <c r="F26" t="n">
-        <v>448.8372874597989</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L26" t="n">
-        <v>1006.023847611597</v>
+        <v>549.9383681074142</v>
       </c>
       <c r="M26" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N26" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="O26" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P26" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T26" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U26" t="n">
-        <v>2003.98568150701</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="V26" t="n">
-        <v>1646.496266633259</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W26" t="n">
-        <v>1250.104916933606</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X26" t="n">
-        <v>838.3849181013534</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="Y26" t="n">
-        <v>838.3849181013534</v>
+        <v>1212.675578485385</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C27" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E27" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>563.6534869019529</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G27" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H27" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I27" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J27" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K27" t="n">
-        <v>572.914647509062</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L27" t="n">
-        <v>1123.5801824935</v>
+        <v>287.7093087981018</v>
       </c>
       <c r="M27" t="n">
-        <v>1674.245717477938</v>
+        <v>287.7093087981018</v>
       </c>
       <c r="N27" t="n">
-        <v>2224.911252462377</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="O27" t="n">
-        <v>2224.911252462377</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="P27" t="n">
-        <v>2224.911252462377</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q27" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R27" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S27" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T27" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U27" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V27" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W27" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X27" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y27" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>877.5118198034049</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C28" t="n">
-        <v>705.5392566823209</v>
+        <v>955.7067844524003</v>
       </c>
       <c r="D28" t="n">
-        <v>542.2224838090916</v>
+        <v>792.390011579171</v>
       </c>
       <c r="E28" t="n">
-        <v>376.0142779619451</v>
+        <v>626.1818057320245</v>
       </c>
       <c r="F28" t="n">
-        <v>204.1525037365056</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="G28" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H28" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6391,7 +6393,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M28" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N28" t="n">
         <v>1451.88378161995</v>
@@ -6409,25 +6411,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T28" t="n">
-        <v>1811.43685720741</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U28" t="n">
-        <v>1811.43685720741</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="V28" t="n">
-        <v>1811.43685720741</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="W28" t="n">
-        <v>1536.584453379923</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X28" t="n">
-        <v>1294.020556825729</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y28" t="n">
-        <v>1067.677788515471</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.707978767259</v>
+        <v>1805.062888170846</v>
       </c>
       <c r="C29" t="n">
-        <v>1119.807248780559</v>
+        <v>1378.162158184146</v>
       </c>
       <c r="D29" t="n">
-        <v>696.5146279655592</v>
+        <v>954.8695373691464</v>
       </c>
       <c r="E29" t="n">
-        <v>448.8372874597989</v>
+        <v>528.892597517004</v>
       </c>
       <c r="F29" t="n">
         <v>448.8372874597989</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J29" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L29" t="n">
-        <v>1218.160237973755</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M29" t="n">
-        <v>1218.160237973755</v>
+        <v>549.9383681074142</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O29" t="n">
-        <v>1218.160237973755</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P29" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U29" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V29" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W29" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X29" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y29" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462376</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C30" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E30" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>563.6534869019529</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G30" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H30" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I30" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J30" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K30" t="n">
-        <v>572.914647509062</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L30" t="n">
-        <v>1123.5801824935</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M30" t="n">
-        <v>1674.245717477938</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N30" t="n">
-        <v>2224.911252462377</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O30" t="n">
-        <v>2224.911252462377</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P30" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q30" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R30" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S30" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T30" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U30" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V30" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W30" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X30" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y30" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>526.5240263679456</v>
+        <v>833.0322042934204</v>
       </c>
       <c r="C31" t="n">
-        <v>354.5514632468616</v>
+        <v>661.0596411723363</v>
       </c>
       <c r="D31" t="n">
-        <v>354.5514632468616</v>
+        <v>497.742868299107</v>
       </c>
       <c r="E31" t="n">
-        <v>354.5514632468616</v>
+        <v>331.5346624519606</v>
       </c>
       <c r="F31" t="n">
-        <v>354.5514632468616</v>
+        <v>159.672888226521</v>
       </c>
       <c r="G31" t="n">
-        <v>188.2944935410937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J31" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K31" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L31" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M31" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N31" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O31" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P31" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q31" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R31" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S31" t="n">
-        <v>2224.911252462377</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T31" t="n">
-        <v>2022.344979663618</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U31" t="n">
-        <v>1742.160531163922</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V31" t="n">
-        <v>1460.449063771951</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W31" t="n">
-        <v>1185.596659944464</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="X31" t="n">
-        <v>943.0327633902691</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="Y31" t="n">
-        <v>716.6899950800112</v>
+        <v>1023.198173005486</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>342.3666035752127</v>
+        <v>887.3827134031583</v>
       </c>
       <c r="C32" t="n">
-        <v>342.3666035752127</v>
+        <v>887.3827134031583</v>
       </c>
       <c r="D32" t="n">
-        <v>342.3666035752127</v>
+        <v>887.3827134031583</v>
       </c>
       <c r="E32" t="n">
-        <v>342.3666035752127</v>
+        <v>887.3827134031583</v>
       </c>
       <c r="F32" t="n">
-        <v>342.3666035752127</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G32" t="n">
         <v>342.3666035752127</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K32" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L32" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M32" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N32" t="n">
-        <v>595.1637600336857</v>
+        <v>549.9383681074142</v>
       </c>
       <c r="O32" t="n">
-        <v>1100.603903091853</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P32" t="n">
-        <v>1651.269438076291</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S32" t="n">
-        <v>2120.543958335517</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T32" t="n">
         <v>1899.61838738015</v>
       </c>
       <c r="U32" t="n">
-        <v>1899.61838738015</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V32" t="n">
-        <v>1899.61838738015</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W32" t="n">
-        <v>1503.227037680497</v>
+        <v>887.3827134031583</v>
       </c>
       <c r="X32" t="n">
-        <v>1091.507038848244</v>
+        <v>887.3827134031583</v>
       </c>
       <c r="Y32" t="n">
-        <v>686.1697688031346</v>
+        <v>887.3827134031583</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6767,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L33" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M33" t="n">
+        <v>595.1637600336855</v>
+      </c>
+      <c r="N33" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="N33" t="n">
-        <v>1696.494830002562</v>
-      </c>
       <c r="O33" t="n">
-        <v>1853.185855629757</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P33" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q33" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R33" t="n">
         <v>1853.185855629757</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>545.9957668907078</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C34" t="n">
-        <v>374.0232037696239</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D34" t="n">
-        <v>210.7064308963946</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E34" t="n">
-        <v>44.49822504924814</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F34" t="n">
-        <v>44.49822504924814</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G34" t="n">
-        <v>44.49822504924814</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H34" t="n">
-        <v>44.49822504924814</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J34" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K34" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L34" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M34" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N34" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O34" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P34" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q34" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T34" t="n">
-        <v>2041.81672018638</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U34" t="n">
-        <v>1761.632271686684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V34" t="n">
-        <v>1479.920804294713</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W34" t="n">
-        <v>1205.068400467226</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X34" t="n">
-        <v>962.5045039130314</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y34" t="n">
-        <v>736.1617356027734</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>409.5906334643668</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C35" t="n">
-        <v>44.49822504924753</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D35" t="n">
-        <v>44.49822504924753</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E35" t="n">
-        <v>44.49822504924753</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J35" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L35" t="n">
-        <v>407.101683866143</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="M35" t="n">
-        <v>957.7672188505812</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N35" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O35" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P35" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T35" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U35" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V35" t="n">
-        <v>1646.496266633259</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W35" t="n">
-        <v>1646.496266633259</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X35" t="n">
-        <v>1234.776267801006</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="Y35" t="n">
-        <v>829.4389977558968</v>
+        <v>1867.421837588626</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J36" t="n">
         <v>316.1957143288386</v>
       </c>
       <c r="K36" t="n">
-        <v>866.8612493132769</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="L36" t="n">
-        <v>866.8612493132769</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="M36" t="n">
-        <v>1389.040378766978</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N36" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O36" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P36" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q36" t="n">
         <v>1853.185855629757</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C37" t="n">
-        <v>144.2667933089716</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D37" t="n">
-        <v>144.2667933089716</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E37" t="n">
-        <v>144.2667933089716</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F37" t="n">
-        <v>144.2667933089716</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G37" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H37" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7117,28 +7119,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U37" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V37" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W37" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X37" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y37" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>996.9515396389406</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="C38" t="n">
-        <v>570.0508096522408</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D38" t="n">
-        <v>146.7581888372411</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E38" t="n">
-        <v>44.49822504924753</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924753</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L38" t="n">
-        <v>595.1637600336857</v>
+        <v>455.358312627159</v>
       </c>
       <c r="M38" t="n">
-        <v>1145.829295018124</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N38" t="n">
-        <v>1556.689382596036</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O38" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P38" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462377</v>
+        <v>2199.175481264394</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.911252462377</v>
+        <v>1940.820571860806</v>
       </c>
       <c r="V38" t="n">
-        <v>2224.911252462377</v>
+        <v>1583.331156987056</v>
       </c>
       <c r="W38" t="n">
-        <v>1828.519902762723</v>
+        <v>1186.939807287403</v>
       </c>
       <c r="X38" t="n">
-        <v>1416.799903930471</v>
+        <v>1186.939807287403</v>
       </c>
       <c r="Y38" t="n">
-        <v>1416.799903930471</v>
+        <v>781.6025372422929</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7241,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K39" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L39" t="n">
-        <v>838.3748437825398</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M39" t="n">
-        <v>838.3748437825398</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N39" t="n">
-        <v>1389.040378766978</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O39" t="n">
-        <v>1389.040378766978</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P39" t="n">
-        <v>1389.040378766978</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="Q39" t="n">
         <v>1853.185855629757</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989117</v>
       </c>
       <c r="C40" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782771</v>
       </c>
       <c r="D40" t="n">
-        <v>792.3900115791711</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F40" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G40" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J40" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K40" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L40" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M40" t="n">
         <v>1074.392270743914</v>
@@ -7360,22 +7362,22 @@
         <v>2007.737591668684</v>
       </c>
       <c r="T40" t="n">
-        <v>2007.737591668684</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U40" t="n">
-        <v>2007.737591668684</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V40" t="n">
-        <v>2007.737591668684</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W40" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X40" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y40" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109774</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1966.556343058789</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C41" t="n">
-        <v>1723.231029937541</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D41" t="n">
-        <v>1299.938409122541</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E41" t="n">
-        <v>873.9614692703988</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F41" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K41" t="n">
-        <v>595.1637600336857</v>
+        <v>455.358312627159</v>
       </c>
       <c r="L41" t="n">
-        <v>1145.829295018124</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M41" t="n">
-        <v>1696.494830002562</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N41" t="n">
-        <v>2224.911252462377</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O41" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P41" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q41" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U41" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V41" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W41" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X41" t="n">
-        <v>1966.556343058789</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="Y41" t="n">
-        <v>1966.556343058789</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7478,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K42" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="L42" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="M42" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N42" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="O42" t="n">
-        <v>756.3555336978366</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P42" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q42" t="n">
         <v>1771.166545545054</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1127.679347573484</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C43" t="n">
-        <v>955.7067844524004</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D43" t="n">
-        <v>792.3900115791711</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E43" t="n">
-        <v>626.1818057320246</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F43" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G43" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H43" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7591,28 +7593,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R43" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T43" t="n">
-        <v>1934.533291375449</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U43" t="n">
-        <v>1934.533291375449</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="V43" t="n">
-        <v>1934.533291375449</v>
+        <v>1818.03954822592</v>
       </c>
       <c r="W43" t="n">
-        <v>1786.751981150003</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X43" t="n">
-        <v>1544.188084595808</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y43" t="n">
-        <v>1317.84531628555</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>334.7803709867919</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="C44" t="n">
-        <v>334.7803709867919</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="D44" t="n">
-        <v>334.7803709867919</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="E44" t="n">
-        <v>334.7803709867919</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="F44" t="n">
-        <v>334.7803709867919</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="G44" t="n">
-        <v>334.7803709867919</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J44" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>399.5154512777223</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L44" t="n">
-        <v>399.5154512777223</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M44" t="n">
-        <v>399.5154512777223</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N44" t="n">
-        <v>856.3013579804531</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O44" t="n">
-        <v>856.3013579804531</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="P44" t="n">
-        <v>1313.087264683184</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q44" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S44" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T44" t="n">
-        <v>1520.30675795911</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U44" t="n">
-        <v>1261.951848555523</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V44" t="n">
-        <v>904.4624336817722</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W44" t="n">
-        <v>754.628735278322</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="X44" t="n">
-        <v>754.628735278322</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="Y44" t="n">
-        <v>754.628735278322</v>
+        <v>781.6025372422928</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J45" t="n">
-        <v>308.6094817404178</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K45" t="n">
-        <v>765.3953884431487</v>
+        <v>287.709308798102</v>
       </c>
       <c r="L45" t="n">
-        <v>1222.18129514588</v>
+        <v>287.709308798102</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.18129514588</v>
+        <v>838.37484378254</v>
       </c>
       <c r="N45" t="n">
-        <v>1388.813716338606</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O45" t="n">
-        <v>1388.813716338606</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P45" t="n">
-        <v>1845.599623041337</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.093114985063</v>
+        <v>382.616968980455</v>
       </c>
       <c r="C46" t="n">
-        <v>948.1205518639796</v>
+        <v>382.616968980455</v>
       </c>
       <c r="D46" t="n">
-        <v>784.8037789907503</v>
+        <v>382.616968980455</v>
       </c>
       <c r="E46" t="n">
-        <v>618.5955731436038</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F46" t="n">
-        <v>446.7337989181643</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G46" t="n">
-        <v>280.4768292123964</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H46" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J46" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>94.40332068498475</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>449.0926419794055</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>840.2784369496563</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
-        <v>1217.769947825692</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>1573.198076505455</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>1845.599623041337</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T46" t="n">
-        <v>1845.599623041337</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U46" t="n">
-        <v>1845.599623041337</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V46" t="n">
-        <v>1845.599623041337</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W46" t="n">
-        <v>1779.165748561582</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X46" t="n">
-        <v>1536.601852007387</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y46" t="n">
-        <v>1310.259083697129</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P2" t="n">
-        <v>452.5855512828693</v>
+        <v>571.3293238908516</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>462.458901845498</v>
       </c>
       <c r="L3" t="n">
-        <v>177.8131985346733</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.7088046951723</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>204.8788014195786</v>
       </c>
       <c r="P5" t="n">
-        <v>181.8548408418185</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,25 +8297,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>181.370543772121</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>267.010789576021</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517321</v>
+        <v>78.7088046951723</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
@@ -8459,22 +8461,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>547.9768619480847</v>
       </c>
       <c r="N8" t="n">
-        <v>204.7674648980005</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>96.76900350898819</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>461.830509216993</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>450.7747902674471</v>
       </c>
       <c r="L11" t="n">
-        <v>572.0660045132436</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P11" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>579.3997028378163</v>
+        <v>261.3177895070128</v>
       </c>
       <c r="P12" t="n">
-        <v>180.0446044646217</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8866,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039383</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N14" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716183</v>
+        <v>452.4011488286619</v>
       </c>
       <c r="P14" t="n">
-        <v>571.3293238908518</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,19 +9011,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3705437721212</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291358</v>
+        <v>179.6167914733355</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P15" t="n">
-        <v>577.9986543204228</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9167,25 +9169,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>593.5074359500402</v>
+        <v>547.8252218830993</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P17" t="n">
-        <v>571.3293238908518</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,22 +9245,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L18" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>267.0107895760209</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>267.4386025673074</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>491.5808533018869</v>
@@ -9401,19 +9403,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L20" t="n">
-        <v>663.0624812682908</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M20" t="n">
-        <v>688.4869833702859</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N20" t="n">
-        <v>688.3353433053002</v>
+        <v>452.2898123070838</v>
       </c>
       <c r="O20" t="n">
-        <v>688.4466798268782</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
         <v>37.5753618102313</v>
@@ -9422,7 +9424,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N21" t="n">
-        <v>672.3987486843957</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>463.2315577343865</v>
       </c>
       <c r="P21" t="n">
-        <v>672.8265616756828</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>79.6848660461032</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,28 +9640,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>547.8252218830988</v>
       </c>
       <c r="O23" t="n">
-        <v>779.9723122102898</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9720,19 +9722,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>180.7888499740234</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N24" t="n">
-        <v>218.8803944444793</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>453.322231905261</v>
+        <v>182.59152146421</v>
       </c>
       <c r="M26" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N26" t="n">
-        <v>593.5074359500402</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O26" t="n">
         <v>37.3909593560241</v>
@@ -9893,7 +9895,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9954,25 +9956,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>180.6729970931268</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>578.7428998298237</v>
+        <v>268.1828480767086</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10112,28 +10114,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>301.3352940721928</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>181.7107419310189</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P29" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,22 +10193,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>180.6729970931268</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>579.3245936279221</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N30" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>181.445652982016</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>38.31204243262292</v>
@@ -10358,13 +10360,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>547.8252218830993</v>
       </c>
       <c r="O32" t="n">
-        <v>547.9365584046775</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P32" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10431,25 +10433,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279221</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O33" t="n">
-        <v>181.4456529820153</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>184.5908146029612</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,25 +10588,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>182.59152146421</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>86.13502881159596</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10665,16 +10667,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>578.6270469489275</v>
+        <v>462.4589018454976</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>550.5504466271776</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10683,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10826,16 +10828,16 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>594.539855548217</v>
+        <v>453.3222319052608</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N38" t="n">
-        <v>452.289812307084</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P38" t="n">
         <v>37.5753618102313</v>
@@ -10899,19 +10901,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>268.1828480767085</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10920,7 +10922,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>462.8067063011428</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11060,19 +11062,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9924139104035</v>
+        <v>450.7747902674471</v>
       </c>
       <c r="L41" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N41" t="n">
-        <v>571.0335849150666</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
@@ -11081,7 +11083,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11138,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>578.6270469489275</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11151,13 +11153,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>185.9918631203545</v>
+        <v>380.3837697700399</v>
       </c>
       <c r="P42" t="n">
-        <v>577.9986543204228</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11297,28 +11299,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955935</v>
       </c>
       <c r="P44" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>455.2721730654569</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>483.7991395936675</v>
+        <v>268.0669951958126</v>
       </c>
       <c r="L45" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N45" t="n">
-        <v>189.6586051758914</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -11455,7 +11457,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11470,7 +11472,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>169.2509181278045</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -22556,13 +22558,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>405.1833997657801</v>
+        <v>406.8747641645656</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22595,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -22610,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22705,10 +22707,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -22720,10 +22722,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>19.29091348988597</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22784,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>78.96603561805603</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22835,16 +22837,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>252.6771565749004</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22948,10 +22950,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>59.64236734312308</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -22960,7 +22962,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22993,10 +22995,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>87.65045210707495</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -23027,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>264.8538992693568</v>
       </c>
       <c r="H8" t="n">
-        <v>129.1577809636443</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23261,13 +23263,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23315,16 +23317,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>234.9013593127091</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.6064085940732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>106.2309441183568</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23555,13 +23557,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>314.9859246316669</v>
+        <v>285.5910174848091</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>270.7601085340835</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,19 +23788,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>52.68678807325878</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>124.394579989845</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>189.5437509797595</v>
       </c>
     </row>
     <row r="20">
@@ -23969,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -24023,16 +24025,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>68.04099693542813</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.0257019324368</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>120.8366168176657</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>122.4992781335012</v>
       </c>
     </row>
     <row r="23">
@@ -24221,10 +24223,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>160.0388264952287</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>245.1911612523004</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162.2770323843601</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>165.7641609568373</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24449,19 +24451,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>35.22078565735484</v>
+        <v>415.8277996154539</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,10 +24496,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24506,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>6.536664108324743</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>79.23215548632155</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24686,10 +24688,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>176.5166033529184</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>341.6181830358607</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24734,7 +24736,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>50.57148346320945</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24886,10 +24888,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>40.36534422558785</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>75.28474707297204</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -24926,10 +24928,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>281.6026630492735</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24971,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>59.64236734312252</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>295.2370319744279</v>
       </c>
       <c r="C35" t="n">
-        <v>61.19023835586484</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -25205,7 +25207,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
@@ -25217,10 +25219,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>47.18544517283286</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>320.4798063035074</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,22 +25444,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>193.2379017598109</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>110.0981677402026</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>53.328125375718</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>181.7396626967974</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -25682,7 +25684,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25691,7 +25693,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>348.9253100933453</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -25843,10 +25845,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>116.9973198203197</v>
       </c>
       <c r="W43" t="n">
-        <v>125.8003826660207</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25877,13 +25879,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>244.0920747832409</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>296.5615229454022</v>
       </c>
     </row>
     <row r="45">
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>66.33105441802981</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,19 +26073,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>206.3343440542548</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>483128.8531194786</v>
+        <v>483128.8531194785</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>483128.8531194787</v>
+        <v>483128.8531194786</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>483128.8531194787</v>
+        <v>483128.8531194786</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>524901.7555472823</v>
+        <v>483128.8531194786</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>728154.2977690232</v>
+        <v>483128.8531194783</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>483128.8531194787</v>
+        <v>483128.8531194786</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>483128.8531194787</v>
+        <v>483128.8531194786</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>483128.8531194787</v>
+        <v>483128.8531194786</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>483128.8531194787</v>
+        <v>483128.8531194786</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>428761.1057385681</v>
+        <v>483128.8531194786</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>127059.143630737</v>
       </c>
       <c r="C2" t="n">
-        <v>127059.1436307371</v>
+        <v>127059.143630737</v>
       </c>
       <c r="D2" t="n">
         <v>127059.143630737</v>
@@ -26323,25 +26325,25 @@
         <v>127059.143630737</v>
       </c>
       <c r="F2" t="n">
-        <v>127059.1436307371</v>
+        <v>127059.143630737</v>
       </c>
       <c r="G2" t="n">
         <v>127059.143630737</v>
       </c>
       <c r="H2" t="n">
-        <v>138044.1866952361</v>
+        <v>127059.143630737</v>
       </c>
       <c r="I2" t="n">
-        <v>191493.619210336</v>
+        <v>127059.143630737</v>
       </c>
       <c r="J2" t="n">
-        <v>127059.1436307371</v>
+        <v>127059.143630737</v>
       </c>
       <c r="K2" t="n">
-        <v>127059.1436307371</v>
+        <v>127059.143630737</v>
       </c>
       <c r="L2" t="n">
-        <v>127059.1436307371</v>
+        <v>127059.143630737</v>
       </c>
       <c r="M2" t="n">
         <v>127059.143630737</v>
@@ -26353,7 +26355,7 @@
         <v>127059.143630737</v>
       </c>
       <c r="P2" t="n">
-        <v>112762.0272804593</v>
+        <v>127059.143630737</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>122695.9243396938</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17703.77972371005</v>
+        <v>17703.77972371004</v>
       </c>
       <c r="C4" t="n">
-        <v>17703.77972371005</v>
+        <v>17703.77972371004</v>
       </c>
       <c r="D4" t="n">
         <v>17703.77972371005</v>
       </c>
       <c r="E4" t="n">
-        <v>17703.77972371005</v>
+        <v>17703.77972371004</v>
       </c>
       <c r="F4" t="n">
-        <v>17703.77972371005</v>
+        <v>17703.77972371004</v>
       </c>
       <c r="G4" t="n">
         <v>17703.77972371005</v>
       </c>
       <c r="H4" t="n">
-        <v>19243.02325075614</v>
+        <v>17703.77972371004</v>
       </c>
       <c r="I4" t="n">
-        <v>26732.45160712154</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="J4" t="n">
         <v>17703.77972371005</v>
@@ -26451,13 +26453,13 @@
         <v>17703.77972371005</v>
       </c>
       <c r="N4" t="n">
-        <v>17703.77972371005</v>
+        <v>17703.77972371004</v>
       </c>
       <c r="O4" t="n">
         <v>17703.77972371005</v>
       </c>
       <c r="P4" t="n">
-        <v>15700.44267092141</v>
+        <v>17703.77972371004</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="H5" t="n">
-        <v>39584.18780462793</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="I5" t="n">
-        <v>67637.30207485624</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144495.6205451384</v>
+        <v>-144495.6205451383</v>
       </c>
       <c r="C6" t="n">
-        <v>41909.11286959889</v>
+        <v>41909.11286959887</v>
       </c>
       <c r="D6" t="n">
         <v>41909.11286959887</v>
       </c>
       <c r="E6" t="n">
+        <v>75536.71286959888</v>
+      </c>
+      <c r="F6" t="n">
+        <v>75536.71286959889</v>
+      </c>
+      <c r="G6" t="n">
+        <v>75536.71286959885</v>
+      </c>
+      <c r="H6" t="n">
+        <v>75536.71286959885</v>
+      </c>
+      <c r="I6" t="n">
         <v>75536.71286959886</v>
       </c>
-      <c r="F6" t="n">
-        <v>75536.71286959891</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>-69996.95706521762</v>
+      </c>
+      <c r="K6" t="n">
         <v>75536.71286959888</v>
       </c>
-      <c r="H6" t="n">
-        <v>53631.55278423673</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-25572.05881133556</v>
-      </c>
-      <c r="J6" t="n">
-        <v>75536.71286959889</v>
-      </c>
-      <c r="K6" t="n">
-        <v>75536.71286959891</v>
-      </c>
       <c r="L6" t="n">
-        <v>75536.71286959889</v>
+        <v>75536.71286959888</v>
       </c>
       <c r="M6" t="n">
         <v>75536.71286959888</v>
       </c>
       <c r="N6" t="n">
-        <v>75536.71286959885</v>
+        <v>75536.71286959888</v>
       </c>
       <c r="O6" t="n">
-        <v>75536.71286959885</v>
+        <v>75536.71286959888</v>
       </c>
       <c r="P6" t="n">
-        <v>69008.47033930954</v>
+        <v>75536.71286959889</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="H4" t="n">
-        <v>651.0557204708541</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="I4" t="n">
-        <v>1112.455626231188</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
     </row>
   </sheetData>
@@ -27009,31 +27011,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>556.2278131155939</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>94.82790735525992</v>
-      </c>
-      <c r="I4" t="n">
-        <v>461.3999057603341</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P2" t="n">
-        <v>415.010189472638</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>440.0596680121647</v>
       </c>
       <c r="L3" t="n">
-        <v>155.2981118204437</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127044</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="P5" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>245.6677613624793</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127044</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35179,22 +35181,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486529</v>
       </c>
       <c r="N8" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>75.42597529544652</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="L11" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>556.2278131155941</v>
+        <v>238.1458997847906</v>
       </c>
       <c r="P12" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35586,7 +35588,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155941</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="P14" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M15" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597939</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P15" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486532</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P17" t="n">
-        <v>533.7539620806206</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L18" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>245.6677613624792</v>
       </c>
       <c r="O18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>468.8338150129084</v>
@@ -36121,19 +36123,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L20" t="n">
-        <v>624.7504388356679</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M20" t="n">
-        <v>651.0557204708541</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N20" t="n">
-        <v>651.0557204708541</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="O20" t="n">
-        <v>651.0557204708541</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N21" t="n">
-        <v>651.0557204708541</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="P21" t="n">
-        <v>651.0557204708541</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>56.01194665195906</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>510.5455990486528</v>
       </c>
       <c r="O23" t="n">
-        <v>742.5813528542658</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N24" t="n">
-        <v>197.5373662309377</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>415.0101894726381</v>
+        <v>144.2794790315871</v>
       </c>
       <c r="M26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>158.2737632597934</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>556.2278131155941</v>
+        <v>245.6677613624791</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>144.2794790315871</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>158.2737632597934</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N30" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37078,13 +37080,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>510.5455990486532</v>
       </c>
       <c r="O32" t="n">
-        <v>510.5455990486534</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P32" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O33" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>162.8199733981326</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,25 +37308,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>144.2794790315871</v>
       </c>
       <c r="M35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37385,16 +37387,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>556.2278131155941</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>527.4536661148496</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>556.2278131155941</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="M38" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N38" t="n">
-        <v>415.010189472638</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O38" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>245.6677613624789</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>556.2278131155941</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="L41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N41" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,13 +37873,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>162.8199733981322</v>
+        <v>357.2118800478177</v>
       </c>
       <c r="P42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38017,28 +38019,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="P44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>419.1474984608589</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>461.3999057603342</v>
+        <v>245.6677613624793</v>
       </c>
       <c r="L45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N45" t="n">
-        <v>168.3155769623498</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
         <v>358.2720417115361</v>
@@ -38190,7 +38192,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>146.870117469818</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
         <v>128.2829598391535</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>289639.5954749457</v>
+        <v>284479.2029292966</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18601640.52608542</v>
+        <v>18601640.5260854</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9135685.687344907</v>
+        <v>9135685.687344901</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5586478.319387063</v>
+        <v>5586478.319387064</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>13.99817582792812</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>290.2290206441252</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>107.5447431252</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>101.2373641501126</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -1062,19 +1062,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>104.9037564455519</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>31.91724806472457</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1116,13 +1116,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>135.441772517089</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>74.94599202065615</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399333</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>119.0131614123039</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>152.2874329677962</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.31517967031814</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1621,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>106.8364187178475</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>115.2323879040575</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429393</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>177.3760137358546</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>80.68448536009394</v>
       </c>
       <c r="U17" t="n">
-        <v>203.084572236293</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,10 +2007,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>102.0412378013739</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.53558964739592</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>284.0565579432244</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>187.7303633741237</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>49.87597792716519</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>101.5800624936542</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>58.67748875058447</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>58.67748875058538</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>4.378995526347924</v>
+        <v>167.816479012923</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>5.045140377039849</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>274.3750769737911</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>124.2290557831218</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>192.8717243028906</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>79.25475695663302</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>60.02631602996625</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2955,16 +2955,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>114.0229165455007</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3012,10 +3012,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>139.2702769432202</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>117.7395304238327</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>120.4128486741869</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3280,7 +3280,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>35.85325030900038</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.9095302899769</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>25.47841348600228</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>51.58543740429438</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>58.67748875058492</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>177.8417091006718</v>
       </c>
     </row>
     <row r="42">
@@ -3903,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.8970328977316</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4036,16 +4036,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>131.8902289006298</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>104.7223743992564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>121.9332546069152</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1187.745967515826</v>
+        <v>1186.928412629647</v>
       </c>
       <c r="C2" t="n">
-        <v>760.8452375291258</v>
+        <v>1186.928412629647</v>
       </c>
       <c r="D2" t="n">
-        <v>760.8452375291258</v>
+        <v>763.6357918146477</v>
       </c>
       <c r="E2" t="n">
-        <v>760.8452375291258</v>
+        <v>337.6588519625053</v>
       </c>
       <c r="F2" t="n">
-        <v>746.7056659857641</v>
+        <v>337.6588519625053</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M2" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O2" t="n">
-        <v>1696.494830002561</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.985681507009</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>2003.985681507009</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V2" t="n">
-        <v>2003.985681507009</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W2" t="n">
-        <v>1607.594331807356</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="X2" t="n">
-        <v>1607.594331807356</v>
+        <v>1592.265682674757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1607.594331807356</v>
+        <v>1186.928412629647</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133208</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308255</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461105</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190478</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.653486901952</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.599715119556</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818656</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818656</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>687.9211111614567</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>1123.5801824935</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>1674.245717477938</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M3" t="n">
-        <v>1674.245717477938</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N3" t="n">
-        <v>1674.245717477938</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O3" t="n">
-        <v>2224.911252462376</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P3" t="n">
-        <v>2224.911252462376</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>2224.911252462376</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.58700502363</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321308</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240945</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380211</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213428</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980091</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5772905989112</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C4" t="n">
-        <v>96.60472747782725</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D4" t="n">
-        <v>44.49822504924752</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="E4" t="n">
-        <v>44.49822504924752</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924752</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734052</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792424</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736632</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743914</v>
@@ -4506,34 +4506,34 @@
         <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894584</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394888</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002917</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754298</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212348</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.7432593109769</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>894.6915758509472</v>
+        <v>580.0300086977657</v>
       </c>
       <c r="C5" t="n">
-        <v>467.7908458642473</v>
+        <v>153.1292787110658</v>
       </c>
       <c r="D5" t="n">
-        <v>44.49822504924752</v>
+        <v>153.1292787110658</v>
       </c>
       <c r="E5" t="n">
-        <v>44.49822504924752</v>
+        <v>153.1292787110658</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924752</v>
+        <v>153.1292787110658</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.767218850581</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>2059.098288819457</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>2122.651288674383</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W5" t="n">
-        <v>1726.25993897473</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X5" t="n">
-        <v>1314.539940142477</v>
+        <v>580.0300086977657</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.539940142477</v>
+        <v>580.0300086977657</v>
       </c>
     </row>
     <row r="6">
@@ -4628,46 +4628,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924752</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924752</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>44.49822504924752</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>287.709308798102</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>838.37484378254</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>485.7509513926031</v>
+        <v>1060.150423823583</v>
       </c>
       <c r="C7" t="n">
-        <v>313.7783882715191</v>
+        <v>888.1778607024992</v>
       </c>
       <c r="D7" t="n">
-        <v>150.4616153982898</v>
+        <v>724.8610878292699</v>
       </c>
       <c r="E7" t="n">
-        <v>44.49822504924752</v>
+        <v>558.6528819821234</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924752</v>
+        <v>386.7911077566838</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924752</v>
+        <v>220.5341380509159</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924752</v>
+        <v>76.73786955907033</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734052</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792424</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736632</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
         <v>1074.392270743914</v>
@@ -4752,25 +4752,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688275</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U7" t="n">
-        <v>1701.38745618858</v>
+        <v>1774.591756481815</v>
       </c>
       <c r="V7" t="n">
-        <v>1419.675988796609</v>
+        <v>1492.880289089844</v>
       </c>
       <c r="W7" t="n">
-        <v>1144.823584969122</v>
+        <v>1492.880289089844</v>
       </c>
       <c r="X7" t="n">
-        <v>902.2596884149267</v>
+        <v>1250.316392535649</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.9169201046687</v>
+        <v>1250.316392535649</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1455.701838756372</v>
+        <v>1407.853983585014</v>
       </c>
       <c r="C8" t="n">
-        <v>1455.701838756372</v>
+        <v>1407.853983585014</v>
       </c>
       <c r="D8" t="n">
-        <v>1032.409217941373</v>
+        <v>984.5613627700145</v>
       </c>
       <c r="E8" t="n">
-        <v>606.4322780892302</v>
+        <v>984.5613627700145</v>
       </c>
       <c r="F8" t="n">
-        <v>181.3080962786304</v>
+        <v>559.4371809594147</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924752</v>
+        <v>155.0981185488633</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>549.9383681074139</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N8" t="n">
-        <v>549.9383681074139</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1867.421837588625</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1867.421837588625</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1455.701838756372</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y8" t="n">
-        <v>1455.701838756372</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132766</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132766</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N9" t="n">
-        <v>866.8612493132766</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1417.526784297715</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4983,31 +4983,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>471.3989550359474</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C11" t="n">
-        <v>44.49822504924752</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D11" t="n">
-        <v>44.49822504924752</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E11" t="n">
-        <v>44.49822504924752</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>455.358312627159</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L11" t="n">
-        <v>455.358312627159</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M11" t="n">
-        <v>1006.023847611597</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N11" t="n">
-        <v>1556.689382596035</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O11" t="n">
-        <v>2107.354917580473</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P11" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V11" t="n">
-        <v>2104.695937904493</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W11" t="n">
-        <v>1708.30458820484</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X11" t="n">
-        <v>1296.584589372587</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="Y11" t="n">
-        <v>891.2473193274775</v>
+        <v>1745.792697513689</v>
       </c>
     </row>
     <row r="12">
@@ -5102,40 +5102,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J12" t="n">
-        <v>51.94486801115936</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K12" t="n">
-        <v>602.6104029955973</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L12" t="n">
-        <v>602.6104029955973</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M12" t="n">
-        <v>602.6104029955973</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N12" t="n">
-        <v>602.6104029955973</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O12" t="n">
-        <v>838.37484378254</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P12" t="n">
         <v>1389.040378766978</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>685.0860276212348</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C13" t="n">
-        <v>685.0860276212348</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D13" t="n">
-        <v>685.0860276212348</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E13" t="n">
-        <v>626.1818057320246</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5223,28 +5223,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U13" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V13" t="n">
-        <v>1202.502328002917</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W13" t="n">
-        <v>927.6499241754298</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X13" t="n">
-        <v>685.0860276212348</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y13" t="n">
-        <v>685.0860276212348</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1299.938409122541</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C14" t="n">
-        <v>1299.938409122541</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D14" t="n">
-        <v>1299.938409122541</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E14" t="n">
-        <v>873.9614692703988</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F14" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L14" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M14" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N14" t="n">
-        <v>1696.494830002561</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O14" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P14" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q14" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W14" t="n">
-        <v>2116.995677999903</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="X14" t="n">
-        <v>1705.275679167651</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="Y14" t="n">
-        <v>1299.938409122541</v>
+        <v>1745.792697513689</v>
       </c>
     </row>
     <row r="15">
@@ -5339,37 +5339,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924752</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="K15" t="n">
-        <v>44.49822504924752</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L15" t="n">
-        <v>595.1637600336854</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M15" t="n">
-        <v>595.1637600336854</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="N15" t="n">
-        <v>751.8547856608814</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O15" t="n">
         <v>1302.520320645319</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.5772905989112</v>
+        <v>379.7875610435608</v>
       </c>
       <c r="C16" t="n">
-        <v>96.60472747782725</v>
+        <v>207.8149979224768</v>
       </c>
       <c r="D16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5460,28 +5460,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R16" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.398243894584</v>
+        <v>1875.608514339233</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.213795394888</v>
+        <v>1595.424065839537</v>
       </c>
       <c r="V16" t="n">
-        <v>1202.502328002917</v>
+        <v>1313.712598447566</v>
       </c>
       <c r="W16" t="n">
-        <v>927.6499241754298</v>
+        <v>1038.860194620079</v>
       </c>
       <c r="X16" t="n">
-        <v>685.0860276212348</v>
+        <v>796.2962980658845</v>
       </c>
       <c r="Y16" t="n">
-        <v>458.7432593109769</v>
+        <v>569.9535297556265</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>448.8372874597989</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C17" t="n">
-        <v>448.8372874597989</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D17" t="n">
-        <v>448.8372874597989</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E17" t="n">
-        <v>448.8372874597989</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F17" t="n">
-        <v>448.8372874597989</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L17" t="n">
-        <v>44.49822504924752</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M17" t="n">
-        <v>44.49822504924752</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N17" t="n">
-        <v>549.9383681074142</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O17" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P17" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q17" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462376</v>
+        <v>2039.044478173806</v>
       </c>
       <c r="U17" t="n">
-        <v>2019.775320910565</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.285906036814</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="W17" t="n">
-        <v>1265.894556337161</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="X17" t="n">
-        <v>854.1745575049085</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="Y17" t="n">
-        <v>448.8372874597989</v>
+        <v>1780.689568770218</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K18" t="n">
-        <v>595.1637600336855</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="L18" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M18" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N18" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O18" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P18" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q18" t="n">
         <v>1853.185855629757</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>460.0356249219011</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C19" t="n">
-        <v>288.0630618008171</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D19" t="n">
-        <v>288.0630618008171</v>
+        <v>210.706430896394</v>
       </c>
       <c r="E19" t="n">
-        <v>288.0630618008171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F19" t="n">
-        <v>288.0630618008171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G19" t="n">
-        <v>288.0630618008171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5682,7 +5682,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N19" t="n">
         <v>1451.88378161995</v>
@@ -5697,28 +5697,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S19" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U19" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V19" t="n">
-        <v>1202.502328002917</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W19" t="n">
-        <v>927.6499241754302</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X19" t="n">
-        <v>685.0860276212353</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y19" t="n">
-        <v>650.2015936339667</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>44.49822504924752</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="C20" t="n">
-        <v>44.49822504924752</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D20" t="n">
-        <v>44.49822504924752</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L20" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M20" t="n">
-        <v>1696.494830002561</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N20" t="n">
-        <v>2107.354917580473</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O20" t="n">
-        <v>2107.354917580473</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P20" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U20" t="n">
-        <v>2035.284622791544</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V20" t="n">
-        <v>1677.795207917793</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W20" t="n">
-        <v>1281.40385821814</v>
+        <v>1607.594331807357</v>
       </c>
       <c r="X20" t="n">
-        <v>869.6838593858872</v>
+        <v>1607.594331807357</v>
       </c>
       <c r="Y20" t="n">
-        <v>464.3465893407776</v>
+        <v>1607.594331807357</v>
       </c>
     </row>
     <row r="21">
@@ -5813,37 +5813,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J21" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K21" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L21" t="n">
-        <v>866.8612493132766</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M21" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N21" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O21" t="n">
         <v>1853.185855629757</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>438.7123380797763</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>266.7397749586924</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>266.7397749586924</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>266.7397749586924</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>94.87800073325278</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>94.87800073325278</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>94.87800073325278</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
         <v>101.9895532734055</v>
@@ -5934,28 +5934,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S22" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T22" t="n">
-        <v>2224.911252462376</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U22" t="n">
-        <v>1944.72680396268</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V22" t="n">
-        <v>1663.015336570709</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W22" t="n">
-        <v>1663.015336570709</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X22" t="n">
-        <v>1420.451440016514</v>
+        <v>855.2210751020999</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>628.878306791842</v>
       </c>
     </row>
     <row r="23">
@@ -5977,58 +5977,58 @@
         <v>469.6224068598473</v>
       </c>
       <c r="F23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>44.49822504924752</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L23" t="n">
-        <v>595.1637600336854</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M23" t="n">
-        <v>1145.829295018124</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N23" t="n">
-        <v>1651.26943807629</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O23" t="n">
-        <v>1651.26943807629</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P23" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T23" t="n">
-        <v>2165.64106180522</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U23" t="n">
-        <v>2165.64106180522</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V23" t="n">
-        <v>2165.64106180522</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W23" t="n">
-        <v>2165.64106180522</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X23" t="n">
         <v>2165.64106180522</v>
@@ -6050,40 +6050,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E24" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K24" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L24" t="n">
-        <v>201.1892506764434</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M24" t="n">
-        <v>751.8547856608814</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N24" t="n">
         <v>1302.520320645319</v>
       </c>
       <c r="O24" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P24" t="n">
         <v>1853.185855629757</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>458.7432593109769</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C25" t="n">
-        <v>458.7432593109769</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D25" t="n">
-        <v>458.7432593109769</v>
+        <v>313.77838827152</v>
       </c>
       <c r="E25" t="n">
-        <v>458.7432593109769</v>
+        <v>313.77838827152</v>
       </c>
       <c r="F25" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G25" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H25" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
         <v>101.9895532734055</v>
@@ -6171,28 +6171,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U25" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V25" t="n">
-        <v>1202.502328002917</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W25" t="n">
-        <v>927.6499241754298</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X25" t="n">
-        <v>685.0860276212348</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y25" t="n">
-        <v>458.7432593109769</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1212.675578485385</v>
+        <v>1726.839139109241</v>
       </c>
       <c r="C26" t="n">
-        <v>1212.675578485385</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="D26" t="n">
-        <v>1212.675578485385</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E26" t="n">
-        <v>786.6986386332422</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F26" t="n">
-        <v>781.6025372422929</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G26" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H26" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L26" t="n">
-        <v>549.9383681074142</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M26" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N26" t="n">
-        <v>1651.26943807629</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O26" t="n">
-        <v>1651.26943807629</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P26" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U26" t="n">
-        <v>1966.556343058788</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V26" t="n">
-        <v>1609.066928185038</v>
+        <v>1726.839139109241</v>
       </c>
       <c r="W26" t="n">
-        <v>1212.675578485385</v>
+        <v>1726.839139109241</v>
       </c>
       <c r="X26" t="n">
-        <v>1212.675578485385</v>
+        <v>1726.839139109241</v>
       </c>
       <c r="Y26" t="n">
-        <v>1212.675578485385</v>
+        <v>1726.839139109241</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L27" t="n">
-        <v>287.7093087981018</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M27" t="n">
-        <v>287.7093087981018</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N27" t="n">
-        <v>838.3748437825399</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O27" t="n">
-        <v>838.3748437825399</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P27" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q27" t="n">
         <v>1853.185855629757</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1127.679347573484</v>
+        <v>360.2670566621771</v>
       </c>
       <c r="C28" t="n">
-        <v>955.7067844524003</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="D28" t="n">
-        <v>792.390011579171</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="E28" t="n">
-        <v>626.1818057320245</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="F28" t="n">
-        <v>454.3200315065849</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G28" t="n">
-        <v>288.0630618008171</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H28" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6393,7 +6393,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M28" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N28" t="n">
         <v>1451.88378161995</v>
@@ -6411,25 +6411,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2224.911252462376</v>
+        <v>2099.42735773195</v>
       </c>
       <c r="T28" t="n">
-        <v>1981.571904688276</v>
+        <v>1856.088009957849</v>
       </c>
       <c r="U28" t="n">
-        <v>1981.571904688276</v>
+        <v>1575.903561458154</v>
       </c>
       <c r="V28" t="n">
-        <v>1981.571904688276</v>
+        <v>1294.192094066183</v>
       </c>
       <c r="W28" t="n">
-        <v>1786.751981150003</v>
+        <v>1019.339690238696</v>
       </c>
       <c r="X28" t="n">
-        <v>1544.188084595808</v>
+        <v>776.7757936845007</v>
       </c>
       <c r="Y28" t="n">
-        <v>1317.84531628555</v>
+        <v>550.4330253742428</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1805.062888170846</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C29" t="n">
-        <v>1378.162158184146</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D29" t="n">
-        <v>954.8695373691464</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E29" t="n">
-        <v>528.892597517004</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F29" t="n">
-        <v>448.8372874597989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K29" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L29" t="n">
-        <v>407.101683866143</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M29" t="n">
-        <v>549.9383681074142</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N29" t="n">
-        <v>1100.603903091852</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O29" t="n">
-        <v>1651.26943807629</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P29" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q29" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462376</v>
+        <v>2164.278610007865</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462376</v>
+        <v>2164.278610007865</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.911252462376</v>
+        <v>1905.923700604277</v>
       </c>
       <c r="V29" t="n">
-        <v>2224.911252462376</v>
+        <v>1548.434285730527</v>
       </c>
       <c r="W29" t="n">
-        <v>2224.911252462376</v>
+        <v>1152.042936030874</v>
       </c>
       <c r="X29" t="n">
-        <v>2224.911252462376</v>
+        <v>1152.042936030874</v>
       </c>
       <c r="Y29" t="n">
-        <v>2224.911252462376</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M30" t="n">
-        <v>595.1637600336855</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N30" t="n">
+        <v>595.1637600336857</v>
+      </c>
+      <c r="O30" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="O30" t="n">
-        <v>1302.520320645319</v>
-      </c>
       <c r="P30" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q30" t="n">
         <v>1853.185855629757</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>833.0322042934204</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C31" t="n">
-        <v>661.0596411723363</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D31" t="n">
-        <v>497.742868299107</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E31" t="n">
-        <v>331.5346624519606</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F31" t="n">
-        <v>159.672888226521</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J31" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K31" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L31" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M31" t="n">
         <v>1074.392270743914</v>
@@ -6648,25 +6648,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S31" t="n">
-        <v>2054.776204981511</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T31" t="n">
-        <v>1811.436857207411</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U31" t="n">
-        <v>1531.252408707715</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V31" t="n">
-        <v>1249.540941315744</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W31" t="n">
-        <v>1249.540941315744</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X31" t="n">
-        <v>1249.540941315744</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y31" t="n">
-        <v>1023.198173005486</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>887.3827134031583</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C32" t="n">
-        <v>887.3827134031583</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D32" t="n">
-        <v>887.3827134031583</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E32" t="n">
-        <v>887.3827134031583</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F32" t="n">
-        <v>746.7056659857641</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G32" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L32" t="n">
-        <v>44.49822504924752</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M32" t="n">
-        <v>44.49822504924752</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N32" t="n">
-        <v>549.9383681074142</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O32" t="n">
-        <v>1100.603903091852</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P32" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T32" t="n">
         <v>1899.61838738015</v>
       </c>
       <c r="U32" t="n">
-        <v>1641.263477976562</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="V32" t="n">
-        <v>1283.774063102811</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="W32" t="n">
-        <v>887.3827134031583</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="X32" t="n">
-        <v>887.3827134031583</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="Y32" t="n">
-        <v>887.3827134031583</v>
+        <v>1780.689568770218</v>
       </c>
     </row>
     <row r="33">
@@ -6767,40 +6767,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>44.49822504924752</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M33" t="n">
-        <v>595.1637600336855</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N33" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O33" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P33" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q33" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R33" t="n">
         <v>1853.185855629757</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C34" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D34" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6885,25 +6885,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T34" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U34" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W34" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y34" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1745.792697513689</v>
+        <v>1726.839139109241</v>
       </c>
       <c r="C35" t="n">
-        <v>1318.891967526989</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="D35" t="n">
-        <v>895.5993467119897</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E35" t="n">
-        <v>469.6224068598473</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F35" t="n">
-        <v>44.49822504924752</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>957.7672188505811</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L35" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M35" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N35" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O35" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P35" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462376</v>
+        <v>2084.328553982991</v>
       </c>
       <c r="V35" t="n">
-        <v>1867.421837588626</v>
+        <v>1726.839139109241</v>
       </c>
       <c r="W35" t="n">
-        <v>1867.421837588626</v>
+        <v>1726.839139109241</v>
       </c>
       <c r="X35" t="n">
-        <v>1867.421837588626</v>
+        <v>1726.839139109241</v>
       </c>
       <c r="Y35" t="n">
-        <v>1867.421837588626</v>
+        <v>1726.839139109241</v>
       </c>
     </row>
     <row r="36">
@@ -7004,31 +7004,31 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J36" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K36" t="n">
-        <v>751.8547856608812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L36" t="n">
-        <v>751.8547856608812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.520320645319</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N36" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O36" t="n">
         <v>1853.185855629757</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1127.679347573484</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C37" t="n">
-        <v>955.7067844524004</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D37" t="n">
-        <v>792.3900115791711</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E37" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F37" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G37" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H37" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7125,22 +7125,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T37" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U37" t="n">
-        <v>2224.911252462376</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V37" t="n">
-        <v>2061.60438497749</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W37" t="n">
-        <v>1786.751981150003</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X37" t="n">
-        <v>1544.188084595808</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y37" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>781.6025372422929</v>
+        <v>1655.265326481184</v>
       </c>
       <c r="C38" t="n">
-        <v>781.6025372422929</v>
+        <v>1228.364596494484</v>
       </c>
       <c r="D38" t="n">
-        <v>781.6025372422929</v>
+        <v>1228.364596494484</v>
       </c>
       <c r="E38" t="n">
-        <v>781.6025372422929</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="F38" t="n">
-        <v>781.6025372422929</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G38" t="n">
         <v>377.2634748317415</v>
@@ -7171,55 +7171,55 @@
         <v>79.39509630577632</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L38" t="n">
-        <v>455.358312627159</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M38" t="n">
-        <v>1006.023847611597</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N38" t="n">
-        <v>1556.689382596035</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O38" t="n">
-        <v>2107.354917580473</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P38" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T38" t="n">
-        <v>2199.175481264394</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U38" t="n">
-        <v>1940.820571860806</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V38" t="n">
-        <v>1583.331156987056</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W38" t="n">
-        <v>1186.939807287403</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X38" t="n">
-        <v>1186.939807287403</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="Y38" t="n">
-        <v>781.6025372422929</v>
+        <v>1899.61838738015</v>
       </c>
     </row>
     <row r="39">
@@ -7241,37 +7241,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J39" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K39" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L39" t="n">
-        <v>316.1957143288386</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M39" t="n">
-        <v>866.8612493132766</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N39" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O39" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P39" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q39" t="n">
         <v>1853.185855629757</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>268.5772905989117</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C40" t="n">
-        <v>96.60472747782771</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D40" t="n">
-        <v>44.49822504924752</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E40" t="n">
-        <v>44.49822504924752</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J40" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K40" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L40" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M40" t="n">
         <v>1074.392270743914</v>
@@ -7356,28 +7356,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U40" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V40" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W40" t="n">
-        <v>927.6499241754302</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X40" t="n">
-        <v>685.0860276212353</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y40" t="n">
-        <v>458.7432593109774</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1745.792697513689</v>
+        <v>1208.503267228993</v>
       </c>
       <c r="C41" t="n">
-        <v>1318.891967526989</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D41" t="n">
-        <v>895.5993467119897</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E41" t="n">
-        <v>469.6224068598473</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F41" t="n">
-        <v>44.49822504924752</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>455.358312627159</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L41" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M41" t="n">
-        <v>1556.689382596035</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N41" t="n">
-        <v>1556.689382596035</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O41" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P41" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V41" t="n">
-        <v>2224.911252462376</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W41" t="n">
-        <v>2224.911252462376</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X41" t="n">
-        <v>2165.64106180522</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="Y41" t="n">
-        <v>2165.64106180522</v>
+        <v>1208.503267228993</v>
       </c>
     </row>
     <row r="42">
@@ -7478,40 +7478,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J42" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K42" t="n">
-        <v>866.8612493132766</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L42" t="n">
-        <v>866.8612493132766</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M42" t="n">
-        <v>866.8612493132766</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="N42" t="n">
-        <v>866.8612493132766</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="O42" t="n">
-        <v>1220.501010560616</v>
+        <v>1703.941472964474</v>
       </c>
       <c r="P42" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q42" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R42" t="n">
         <v>1853.185855629757</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>884.1145108219148</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C43" t="n">
-        <v>712.1419477008308</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D43" t="n">
-        <v>548.8251748276015</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E43" t="n">
-        <v>382.616968980455</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F43" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7596,25 +7596,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T43" t="n">
-        <v>1981.571904688275</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U43" t="n">
-        <v>1981.571904688275</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V43" t="n">
-        <v>1818.03954822592</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W43" t="n">
-        <v>1543.187144398433</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X43" t="n">
-        <v>1300.623247844238</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y43" t="n">
-        <v>1074.28047953398</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>781.6025372422928</v>
+        <v>1192.559954376912</v>
       </c>
       <c r="C44" t="n">
-        <v>781.6025372422928</v>
+        <v>765.6592243902124</v>
       </c>
       <c r="D44" t="n">
-        <v>781.6025372422928</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E44" t="n">
-        <v>781.6025372422928</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F44" t="n">
-        <v>781.6025372422928</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G44" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H44" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L44" t="n">
         <v>1508.432753835019</v>
@@ -7663,37 +7663,37 @@
         <v>1508.432753835019</v>
       </c>
       <c r="O44" t="n">
-        <v>1768.825772958193</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P44" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T44" t="n">
-        <v>1899.618387380149</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U44" t="n">
-        <v>1641.263477976561</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V44" t="n">
-        <v>1283.774063102811</v>
+        <v>1612.408318668442</v>
       </c>
       <c r="W44" t="n">
-        <v>887.3827134031578</v>
+        <v>1612.408318668442</v>
       </c>
       <c r="X44" t="n">
-        <v>887.3827134031578</v>
+        <v>1612.408318668442</v>
       </c>
       <c r="Y44" t="n">
-        <v>781.6025372422928</v>
+        <v>1612.408318668442</v>
       </c>
     </row>
     <row r="45">
@@ -7709,43 +7709,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>287.709308798102</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>287.709308798102</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M45" t="n">
-        <v>838.37484378254</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N45" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O45" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P45" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q45" t="n">
         <v>1853.185855629757</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>382.616968980455</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C46" t="n">
-        <v>382.616968980455</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D46" t="n">
-        <v>382.616968980455</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E46" t="n">
-        <v>382.616968980455</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F46" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
         <v>101.9895532734055</v>
@@ -7833,25 +7833,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>2054.776204981511</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T46" t="n">
-        <v>1811.43685720741</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U46" t="n">
-        <v>1531.252408707715</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V46" t="n">
-        <v>1249.540941315744</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W46" t="n">
-        <v>974.6885374882565</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X46" t="n">
-        <v>732.1246409340616</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y46" t="n">
-        <v>505.7818726238037</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
@@ -7987,22 +7987,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716181</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P2" t="n">
-        <v>571.3293238908516</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>462.458901845498</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298235</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.7088046951723</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8218,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150257</v>
+        <v>300.4545145390017</v>
       </c>
       <c r="N5" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>204.8788014195786</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>175.9092261537768</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8306,19 +8306,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>267.010789576021</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204226</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.7088046951723</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8461,16 +8461,16 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>547.9768619480847</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298235</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8546,16 +8546,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>461.830509216993</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>450.7747902674471</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8768,10 +8768,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8783,10 +8783,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>261.3177895070128</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>577.9986543204226</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039383</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L14" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>593.50743595004</v>
+        <v>300.3028744740158</v>
       </c>
       <c r="O14" t="n">
-        <v>452.4011488286619</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,28 +9002,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>171.3630160154378</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>179.6167914733355</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378161</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P15" t="n">
-        <v>577.9986543204226</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9163,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M17" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>547.8252218830993</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>578.6270469489274</v>
+        <v>454.9370402678085</v>
       </c>
       <c r="L18" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N18" t="n">
-        <v>267.0107895760209</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9263,7 +9263,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L20" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>452.2898123070838</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279219</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>463.2315577343865</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>298.7878524343791</v>
       </c>
       <c r="L23" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M23" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>547.8252218830988</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,28 +9713,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L24" t="n">
-        <v>180.7888499740234</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M24" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9877,22 +9877,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L26" t="n">
-        <v>182.59152146421</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M26" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9959,22 +9959,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>268.1828480767086</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291356</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P27" t="n">
-        <v>577.9986543204227</v>
+        <v>180.0446044646217</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M29" t="n">
-        <v>181.7107419310189</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>593.6187724716181</v>
+        <v>110.4525178970659</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>579.324593627922</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N30" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>181.445652982016</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P30" t="n">
-        <v>577.9986543204227</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M32" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>547.8252218830993</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P32" t="n">
-        <v>593.8031749258253</v>
+        <v>205.0632038737858</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M33" t="n">
-        <v>579.324593627922</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>184.5908146029612</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L35" t="n">
-        <v>182.59152146421</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
@@ -10603,7 +10603,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10664,22 +10664,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>462.4589018454976</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>579.324593627922</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291356</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>453.3222319052608</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>593.5074359500401</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M39" t="n">
-        <v>579.324593627922</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10922,7 +10922,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>462.8067063011428</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>450.7747902674471</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L41" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150258</v>
+        <v>204.9191049629863</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O41" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
@@ -11083,7 +11083,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>578.6270469489274</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>380.3837697700399</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P42" t="n">
-        <v>577.9986543204227</v>
+        <v>172.5227428869331</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,10 +11299,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L44" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
@@ -11311,16 +11311,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>300.4142109955935</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>268.0669951958126</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M45" t="n">
-        <v>579.3245936279219</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N45" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11396,7 +11396,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8747641645656</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>110.0666511423207</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22609,13 +22609,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,7 +22710,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -22719,7 +22719,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>113.0089626044154</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -22798,7 +22798,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>292.7509286612458</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -22837,13 +22837,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>252.6771565749004</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22950,19 +22950,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>59.64236734312308</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>66.85363451240221</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,10 +22992,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -23029,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>264.8538992693568</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>219.9437027200494</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23080,7 +23080,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>71.98949189919185</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>234.9013593127091</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>255.315365876134</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>106.2309441183568</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>285.5910174848091</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>286.0515094406011</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>63.52994056050437</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23734,25 +23734,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>138.0318298857192</v>
       </c>
       <c r="U17" t="n">
-        <v>52.68678807325878</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>59.6423673431231</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -23907,10 +23907,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.5437509797595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>131.5933227053903</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -24022,22 +24022,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>68.04099693542813</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>48.8949046499616</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>122.4992781335012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24259,7 +24259,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>160.0388264952287</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
         <v>255.7713603095518</v>
@@ -24271,7 +24271,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>348.9253100933448</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24375,13 +24375,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>165.7641609568373</v>
+        <v>2.326677470262183</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060574</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>415.8277996154539</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>79.53944375122188</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>44.20464122293468</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>79.23215548632155</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>341.6181830358607</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>43.29730515562474</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>50.57148346320945</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,25 +24919,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>281.6026630492735</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>138.0318298857191</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>295.2370319744279</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>219.9181100005515</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>173.7403503586379</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>193.2379017598109</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>110.0981677402026</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>348.9253100933453</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>223.4421882439867</v>
       </c>
     </row>
     <row r="42">
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25836,16 +25836,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>116.9973198203197</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25879,13 +25879,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>222.0242918243832</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.5615229454022</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.33105441802981</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>483128.8531194786</v>
+        <v>483128.8531194787</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>483128.8531194786</v>
+        <v>483128.8531194787</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>483128.8531194785</v>
+        <v>483128.8531194787</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>483128.8531194786</v>
+        <v>483128.8531194787</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>483128.8531194783</v>
+        <v>483128.8531194787</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>483128.8531194786</v>
+        <v>483128.8531194787</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>483128.8531194786</v>
+        <v>483128.8531194787</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>127059.143630737</v>
+        <v>127059.1436307371</v>
       </c>
       <c r="C2" t="n">
         <v>127059.143630737</v>
@@ -26322,7 +26322,7 @@
         <v>127059.143630737</v>
       </c>
       <c r="E2" t="n">
-        <v>127059.143630737</v>
+        <v>127059.1436307371</v>
       </c>
       <c r="F2" t="n">
         <v>127059.143630737</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="C4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="D4" t="n">
         <v>17703.77972371005</v>
       </c>
       <c r="E4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="F4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="G4" t="n">
         <v>17703.77972371005</v>
       </c>
       <c r="H4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="I4" t="n">
         <v>17703.77972371005</v>
@@ -26453,13 +26453,13 @@
         <v>17703.77972371005</v>
       </c>
       <c r="N4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="O4" t="n">
         <v>17703.77972371005</v>
       </c>
       <c r="P4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144495.6205451383</v>
+        <v>-145104.666257628</v>
       </c>
       <c r="C6" t="n">
-        <v>41909.11286959887</v>
+        <v>41300.06715710921</v>
       </c>
       <c r="D6" t="n">
-        <v>41909.11286959887</v>
+        <v>41300.0671571092</v>
       </c>
       <c r="E6" t="n">
-        <v>75536.71286959888</v>
+        <v>74927.66715710923</v>
       </c>
       <c r="F6" t="n">
-        <v>75536.71286959889</v>
+        <v>74927.66715710922</v>
       </c>
       <c r="G6" t="n">
-        <v>75536.71286959885</v>
+        <v>74927.66715710922</v>
       </c>
       <c r="H6" t="n">
-        <v>75536.71286959885</v>
+        <v>74927.66715710922</v>
       </c>
       <c r="I6" t="n">
-        <v>75536.71286959886</v>
+        <v>74927.66715710914</v>
       </c>
       <c r="J6" t="n">
-        <v>-69996.95706521762</v>
+        <v>-70606.0027777073</v>
       </c>
       <c r="K6" t="n">
-        <v>75536.71286959888</v>
+        <v>74927.6671571092</v>
       </c>
       <c r="L6" t="n">
-        <v>75536.71286959888</v>
+        <v>74927.66715710922</v>
       </c>
       <c r="M6" t="n">
-        <v>75536.71286959888</v>
+        <v>74927.6671571092</v>
       </c>
       <c r="N6" t="n">
-        <v>75536.71286959888</v>
+        <v>74927.66715710922</v>
       </c>
       <c r="O6" t="n">
-        <v>75536.71286959888</v>
+        <v>74927.66715710919</v>
       </c>
       <c r="P6" t="n">
-        <v>75536.71286959889</v>
+        <v>74927.66715710919</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="G4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="I4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34707,22 +34707,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P2" t="n">
-        <v>533.7539620806203</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>440.0596680121647</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127044</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34938,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155939</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>167.4878420635545</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>245.6677613624793</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127044</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35181,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>510.5455990486529</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>440.0596680121643</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35351,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>415.0101894726378</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35488,10 +35488,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>238.1458997847906</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>556.2278131155939</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35588,7 +35588,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155939</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="O14" t="n">
-        <v>415.0101894726378</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>150.7519016821044</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>158.2737632597939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P15" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>510.5455990486532</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>556.227813115594</v>
+        <v>432.5378064344752</v>
       </c>
       <c r="L18" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N18" t="n">
-        <v>245.6677613624792</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L20" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>415.0101894726378</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>440.0596680121643</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="L23" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M23" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>510.5455990486528</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L24" t="n">
-        <v>158.2737632597938</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M24" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L26" t="n">
-        <v>144.2794790315871</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M26" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36679,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>245.6677613624791</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N27" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P27" t="n">
-        <v>556.227813115594</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M29" t="n">
-        <v>144.2794790315871</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>556.227813115594</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N30" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>158.2737632597938</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P30" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>510.5455990486532</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P32" t="n">
-        <v>556.227813115594</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M33" t="n">
-        <v>556.227813115594</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N33" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>162.8199733981326</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L35" t="n">
-        <v>144.2794790315871</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>440.0596680121643</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N36" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>415.0101894726378</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>556.227813115594</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O38" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M39" t="n">
-        <v>556.227813115594</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N39" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>440.0596680121643</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>415.0101894726378</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L41" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M41" t="n">
-        <v>556.227813115594</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O41" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>357.2118800478177</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P42" t="n">
-        <v>556.227813115594</v>
+        <v>150.7519016821045</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L44" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>263.0232516395694</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>245.6677613624793</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M45" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N45" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
